--- a/artfynd/A 54671-2021.xlsx
+++ b/artfynd/A 54671-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73741071</v>
+        <v>96483446</v>
       </c>
       <c r="B2" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,36 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Raltkölliden, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>358226.9757352364</v>
+        <v>358350.7523457828</v>
       </c>
       <c r="R2" t="n">
-        <v>6853003.403278765</v>
+        <v>6853048.491440171</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -752,7 +753,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-10-26</t>
+          <t>2021-10-05</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -762,12 +763,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-10-26</t>
+          <t>2021-10-05</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Avverkningsanmält.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,25 +786,45 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>John-Olof Halvarsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>John-Olof Halvarsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73741042</v>
+        <v>96483356</v>
       </c>
       <c r="B3" t="n">
-        <v>89633</v>
+        <v>77259</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,48 +833,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Raltkölliden, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>358011.5696047437</v>
+        <v>358049.7783280805</v>
       </c>
       <c r="R3" t="n">
-        <v>6852865.0116787</v>
+        <v>6852584.895215719</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -875,7 +894,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2018-10-26</t>
+          <t>2021-10-05</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -885,12 +904,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2018-10-26</t>
+          <t>2021-10-05</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Avverkningsanmält.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,22 +930,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>John-Olof Halvarsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>John-Olof Halvarsson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73741060</v>
+        <v>73741071</v>
       </c>
       <c r="B4" t="n">
-        <v>94532</v>
+        <v>89410</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,41 +954,40 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1452</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Timmerskapania</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Scapania apiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Spruce</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Raltkölliden, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>358240.2044175995</v>
+        <v>358226.9757352364</v>
       </c>
       <c r="R4" t="n">
-        <v>6852979.173113798</v>
+        <v>6853003.403278765</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -1007,11 +1030,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>På tallved i stor lok, torrlagd för tillfället. Ej sågade kanter. Röda groddkorn. Lämnar kollekt till U.Gunnarsson. Granskog runt loken. Kanske totalt 3 granlågor o 1 tallåga äldre. Skulle behöva kompleteras med mer ved. Dålig kantzon från hygget.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1039,10 +1057,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96483446</v>
+        <v>73741042</v>
       </c>
       <c r="B5" t="n">
-        <v>89392</v>
+        <v>89633</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1051,41 +1069,48 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>65</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Raltkölliden, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>358350.7523457828</v>
+        <v>358011.5696047437</v>
       </c>
       <c r="R5" t="n">
-        <v>6853048.491440171</v>
+        <v>6852865.0116787</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1112,7 +1137,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-10-05</t>
+          <t>2018-10-26</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1122,17 +1147,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-10-05</t>
+          <t>2018-10-26</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Avverkningsanmält.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1145,45 +1165,25 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
-        </is>
-      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>John-Olof Halvarsson</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>John-Olof Halvarsson</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96483356</v>
+        <v>73741060</v>
       </c>
       <c r="B6" t="n">
-        <v>77259</v>
+        <v>94532</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1192,41 +1192,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>1452</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Timmerskapania</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Scapania apiculata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>Spruce</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Raltkölliden, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>358049.7783280805</v>
+        <v>358240.2044175995</v>
       </c>
       <c r="R6" t="n">
-        <v>6852584.895215719</v>
+        <v>6852979.173113798</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-10-05</t>
+          <t>2018-10-26</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-10-05</t>
+          <t>2018-10-26</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Avverkningsanmält.</t>
+          <t>På tallved i stor lok, torrlagd för tillfället. Ej sågade kanter. Röda groddkorn. Lämnar kollekt till U.Gunnarsson. Granskog runt loken. Kanske totalt 3 granlågor o 1 tallåga äldre. Skulle behöva kompleteras med mer ved. Dålig kantzon från hygget.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1289,12 +1289,12 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>John-Olof Halvarsson</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>John-Olof Halvarsson</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
